--- a/VnV AT M3 PQs answer edited(1).xlsx
+++ b/VnV AT M3 PQs answer edited(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibhurasa\Desktop\solve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibhurasa\Documents\My Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1598,7 +1598,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1663,6 +1663,9 @@
     <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,15 +1674,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -5372,8 +5366,8 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5530,16 +5524,16 @@
       <c r="G4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L4" s="2"/>
@@ -5835,7 +5829,7 @@
       <c r="J12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="20" t="s">
         <v>49</v>
       </c>
       <c r="L12" s="2"/>
@@ -5863,7 +5857,7 @@
       <c r="G13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="20" t="s">
         <v>182</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -5903,7 +5897,7 @@
       <c r="H14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="20" t="s">
         <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -6051,7 +6045,7 @@
       <c r="H18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="16" t="s">
         <v>105</v>
       </c>
       <c r="J18" s="20" t="s">
@@ -6122,16 +6116,16 @@
       <c r="G20" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="23" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="23" t="s">
         <v>109</v>
       </c>
       <c r="L20" s="2"/>
@@ -6423,10 +6417,10 @@
       <c r="H28" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="24" t="s">
         <v>204</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -6601,7 +6595,7 @@
       <c r="G33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="25" t="s">
         <v>58</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -6641,7 +6635,7 @@
       <c r="H34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -6860,7 +6854,7 @@
       <c r="G40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>3</v>
       </c>
       <c r="I40" s="5">
@@ -7082,7 +7076,7 @@
       <c r="G46" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="23">
         <v>3</v>
       </c>
       <c r="I46" s="5">
@@ -7156,7 +7150,7 @@
       <c r="G48" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="25" t="s">
         <v>229</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -7236,7 +7230,7 @@
       <c r="I50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="23" t="s">
         <v>161</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -7304,7 +7298,7 @@
       <c r="G52" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="23" t="s">
         <v>165</v>
       </c>
       <c r="I52" s="6" t="s">
